--- a/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
+++ b/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Fix" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现答案保存到本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库未关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把答案格式改为栏目、序号、Id、答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试网络连接改为异步处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -26,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +101,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,12 +130,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,224 +438,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>41385</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>41386</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
+        <v>41386</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>41387</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>41388</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>41389</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>41390</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>41391</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>41392</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>41393</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>41394</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>41395</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>41396</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>41397</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>41398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>41399</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2">
-        <v>41400</v>
+        <v>41399</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2">
-        <v>41401</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2">
-        <v>41402</v>
+        <v>41401</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2">
-        <v>41403</v>
+        <v>41402</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2">
-        <v>41404</v>
+        <v>41403</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2">
-        <v>41405</v>
+        <v>41404</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2">
-        <v>41406</v>
+        <v>41405</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2">
-        <v>41407</v>
+        <v>41406</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2">
-        <v>41408</v>
+        <v>41407</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2">
-        <v>41409</v>
+        <v>41408</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2">
-        <v>41410</v>
+        <v>41409</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2">
-        <v>41411</v>
+        <v>41410</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2">
-        <v>41412</v>
+        <v>41411</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2">
-        <v>41413</v>
+        <v>41412</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2">
-        <v>41414</v>
+        <v>41413</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2">
-        <v>41415</v>
+        <v>41414</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2">
-        <v>41416</v>
+        <v>41415</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2">
-        <v>41417</v>
+        <v>41416</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2">
-        <v>41418</v>
+        <v>41417</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2">
-        <v>41419</v>
+        <v>41418</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2">
-        <v>41420</v>
+        <v>41419</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2">
-        <v>41421</v>
+        <v>41420</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2">
-        <v>41422</v>
+        <v>41421</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2">
-        <v>41423</v>
+        <v>41422</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2">
-        <v>41424</v>
+        <v>41423</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2">
         <v>41425</v>
       </c>
     </row>
@@ -607,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A1:A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -619,213 +707,239 @@
     <col min="2" max="2" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>41385</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>41386</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
+        <v>41386</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>41387</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>41388</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>41389</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>41390</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>41391</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>41392</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>41393</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>41394</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>41395</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>41396</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>41397</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>41398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>41399</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2">
-        <v>41400</v>
+        <v>41399</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2">
-        <v>41401</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2">
-        <v>41402</v>
+        <v>41401</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2">
-        <v>41403</v>
+        <v>41402</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2">
-        <v>41404</v>
+        <v>41403</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2">
-        <v>41405</v>
+        <v>41404</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2">
-        <v>41406</v>
+        <v>41405</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2">
-        <v>41407</v>
+        <v>41406</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2">
-        <v>41408</v>
+        <v>41407</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2">
-        <v>41409</v>
+        <v>41408</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2">
-        <v>41410</v>
+        <v>41409</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2">
-        <v>41411</v>
+        <v>41410</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2">
-        <v>41412</v>
+        <v>41411</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2">
-        <v>41413</v>
+        <v>41412</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2">
-        <v>41414</v>
+        <v>41413</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2">
-        <v>41415</v>
+        <v>41414</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2">
-        <v>41416</v>
+        <v>41415</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2">
-        <v>41417</v>
+        <v>41416</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2">
-        <v>41418</v>
+        <v>41417</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2">
-        <v>41419</v>
+        <v>41418</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2">
-        <v>41420</v>
+        <v>41419</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2">
-        <v>41421</v>
+        <v>41420</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2">
-        <v>41422</v>
+        <v>41421</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2">
-        <v>41423</v>
+        <v>41422</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2">
-        <v>41424</v>
+        <v>41423</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2">
         <v>41425</v>
       </c>
     </row>

--- a/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
+++ b/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Fix" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +55,10 @@
   </si>
   <si>
     <t>测试网络连接改为异步处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -478,7 +474,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>41386</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -489,7 +488,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41387</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -697,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -731,10 +733,10 @@
         <v>41386</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -742,10 +744,10 @@
         <v>41386</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
+++ b/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Fix" sheetId="1" r:id="rId1"/>
     <sheet name="App Enhance" sheetId="2" r:id="rId2"/>
     <sheet name="UI" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,15 +50,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把答案格式改为栏目、序号、Id、答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试网络连接改为异步处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ExamContinue页面显示剩余时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -136,8 +146,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -467,30 +478,30 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>41386</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
         <v>41386</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>41386</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
         <v>41387</v>
       </c>
     </row>
@@ -697,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -736,15 +747,15 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>41386</v>
+        <v>41387</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -752,196 +763,191 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>41387</v>
+        <v>41388</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>41388</v>
+        <v>41389</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>41389</v>
+        <v>41390</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>41390</v>
+        <v>41391</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>41391</v>
+        <v>41392</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>41392</v>
+        <v>41393</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>41393</v>
+        <v>41394</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>41394</v>
+        <v>41395</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>41395</v>
+        <v>41396</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>41396</v>
+        <v>41397</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>41397</v>
+        <v>41398</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>41398</v>
+        <v>41399</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2">
-        <v>41399</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2">
-        <v>41400</v>
+        <v>41401</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2">
-        <v>41401</v>
+        <v>41402</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2">
-        <v>41402</v>
+        <v>41403</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2">
-        <v>41403</v>
+        <v>41404</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2">
-        <v>41404</v>
+        <v>41405</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2">
-        <v>41405</v>
+        <v>41406</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2">
-        <v>41406</v>
+        <v>41407</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2">
-        <v>41407</v>
+        <v>41408</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2">
-        <v>41408</v>
+        <v>41409</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2">
-        <v>41409</v>
+        <v>41410</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2">
-        <v>41410</v>
+        <v>41411</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2">
-        <v>41411</v>
+        <v>41412</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2">
-        <v>41412</v>
+        <v>41413</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2">
-        <v>41413</v>
+        <v>41414</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2">
-        <v>41414</v>
+        <v>41415</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2">
-        <v>41415</v>
+        <v>41416</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2">
-        <v>41416</v>
+        <v>41417</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2">
-        <v>41417</v>
+        <v>41418</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2">
-        <v>41418</v>
+        <v>41419</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2">
-        <v>41419</v>
+        <v>41420</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2">
-        <v>41420</v>
+        <v>41421</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2">
-        <v>41421</v>
+        <v>41422</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2">
-        <v>41422</v>
+        <v>41423</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2">
-        <v>41423</v>
+        <v>41424</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2">
         <v>41425</v>
       </c>
     </row>

--- a/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
+++ b/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="454"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Fix" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,11 +58,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在ExamContinue页面显示剩余时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExamStatus页面Score出现null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExamStatus页面Time出现1970年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个栏目的时候不显示栏目选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛出异常时弹出窗口不关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -150,6 +176,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -478,7 +516,7 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="13">
         <v>41386</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -492,7 +530,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="13">
         <v>41386</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -506,19 +544,28 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>41387</v>
+      <c r="A5" s="9">
+        <v>41389</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>41388</v>
+      <c r="A6" s="9"/>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <v>41389</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
@@ -701,17 +748,22 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -740,14 +792,17 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>41386</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5">
+        <v>41388</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -755,7 +810,7 @@
         <v>41387</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -763,191 +818,192 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>41388</v>
+        <v>41389</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>41389</v>
+        <v>41390</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>41390</v>
+        <v>41391</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>41391</v>
+        <v>41392</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>41392</v>
+        <v>41393</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>41393</v>
+        <v>41394</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>41394</v>
+        <v>41395</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>41395</v>
+        <v>41396</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>41396</v>
+        <v>41397</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>41397</v>
+        <v>41398</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>41398</v>
+        <v>41399</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>41399</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2">
-        <v>41400</v>
+        <v>41401</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2">
-        <v>41401</v>
+        <v>41402</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2">
-        <v>41402</v>
+        <v>41403</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2">
-        <v>41403</v>
+        <v>41404</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2">
-        <v>41404</v>
+        <v>41405</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2">
-        <v>41405</v>
+        <v>41406</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2">
-        <v>41406</v>
+        <v>41407</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2">
-        <v>41407</v>
+        <v>41408</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2">
-        <v>41408</v>
+        <v>41409</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2">
-        <v>41409</v>
+        <v>41410</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2">
-        <v>41410</v>
+        <v>41411</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2">
-        <v>41411</v>
+        <v>41412</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2">
-        <v>41412</v>
+        <v>41413</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2">
-        <v>41413</v>
+        <v>41414</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2">
-        <v>41414</v>
+        <v>41415</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2">
-        <v>41415</v>
+        <v>41416</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2">
-        <v>41416</v>
+        <v>41417</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2">
-        <v>41417</v>
+        <v>41418</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2">
-        <v>41418</v>
+        <v>41419</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2">
-        <v>41419</v>
+        <v>41420</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2">
-        <v>41420</v>
+        <v>41421</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2">
-        <v>41421</v>
+        <v>41422</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2">
-        <v>41422</v>
+        <v>41423</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2">
-        <v>41423</v>
+        <v>41424</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2">
-        <v>41424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2">
         <v>41425</v>
       </c>
     </row>
@@ -959,93 +1015,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>41385</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>41386</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>41387</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>41388</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>41389</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>41390</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>41391</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>41392</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>41393</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>41394</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>41395</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>41396</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>41397</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>41398</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>41399</v>
       </c>

--- a/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
+++ b/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,23 +66,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ExamStatus页面Time出现1970年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个栏目的时候不显示栏目选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛出异常时弹出窗口不关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项选中以后改变字体颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ExamStatus页面Score出现null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExamStatus页面Time出现1970年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有一个栏目的时候不显示栏目选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抛出异常时弹出窗口不关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -178,16 +186,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,13 +498,14 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -544,28 +557,40 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>41389</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>41390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>41390</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
@@ -763,7 +788,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -821,16 +846,23 @@
         <v>41389</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="14">
         <v>41390</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
@@ -1018,7 +1050,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
+++ b/trunk/MSXT/document/eExamAndroidPad/AndroidPad1.0Beta/eExam(1.0Beta).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="454"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="454" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Fix" sheetId="1" r:id="rId1"/>
@@ -191,15 +191,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -529,7 +529,7 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>41386</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -543,7 +543,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>41386</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -557,10 +557,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>41389</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -571,8 +571,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -583,7 +583,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -853,7 +853,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>41390</v>
       </c>
       <c r="B6" s="9" t="s">
